--- a/data/pca/factorExposure/factorExposure_2017-11-17.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-11-17.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02296723193000135</v>
+        <v>0.01502246038044478</v>
       </c>
       <c r="C2">
-        <v>0.0007666968220624889</v>
+        <v>0.03761697394144434</v>
       </c>
       <c r="D2">
-        <v>0.004555486260182652</v>
+        <v>-0.02821388419963038</v>
       </c>
       <c r="E2">
-        <v>-0.01460448032502589</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.02862325950914623</v>
+      </c>
+      <c r="F2">
+        <v>-0.03283533477006603</v>
+      </c>
+      <c r="G2">
+        <v>0.01454639353996279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.011693305569716</v>
+        <v>0.05503854312382632</v>
       </c>
       <c r="C3">
-        <v>0.04964644094159346</v>
+        <v>0.07747877467377566</v>
       </c>
       <c r="D3">
-        <v>-0.01087037285665805</v>
+        <v>-0.01416912588434885</v>
       </c>
       <c r="E3">
-        <v>0.03837290300914824</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.07959948945666069</v>
+      </c>
+      <c r="F3">
+        <v>-0.06140814406640259</v>
+      </c>
+      <c r="G3">
+        <v>0.07441066044038526</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02199574516115103</v>
+        <v>0.05598381524034819</v>
       </c>
       <c r="C4">
-        <v>0.03231981963478953</v>
+        <v>0.06377159468123481</v>
       </c>
       <c r="D4">
-        <v>0.03950914405443915</v>
+        <v>-0.02209144715832718</v>
       </c>
       <c r="E4">
-        <v>-0.03249118567935234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.0002064428536164453</v>
+      </c>
+      <c r="F4">
+        <v>-0.01599091448133297</v>
+      </c>
+      <c r="G4">
+        <v>0.0408981468008616</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01499170162656252</v>
+        <v>0.03201024073559134</v>
       </c>
       <c r="C6">
-        <v>0.05220489967114682</v>
+        <v>0.05418865916072764</v>
       </c>
       <c r="D6">
-        <v>0.03576595817288279</v>
+        <v>-0.01627854470141753</v>
       </c>
       <c r="E6">
-        <v>-0.04986887561265048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.006134433569563016</v>
+      </c>
+      <c r="F6">
+        <v>-0.02019757209895553</v>
+      </c>
+      <c r="G6">
+        <v>0.02422955767997358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01068846872231883</v>
+        <v>0.01988541406729048</v>
       </c>
       <c r="C7">
-        <v>0.02225405692689849</v>
+        <v>0.03711147158632414</v>
       </c>
       <c r="D7">
-        <v>0.06097205548681017</v>
+        <v>-0.01246539958443059</v>
       </c>
       <c r="E7">
-        <v>0.03462527028312778</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.01275291483829911</v>
+      </c>
+      <c r="F7">
+        <v>-0.0110014264889137</v>
+      </c>
+      <c r="G7">
+        <v>0.07641153458135246</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0006961433771788487</v>
+        <v>-0.003023595362972667</v>
       </c>
       <c r="C8">
-        <v>-0.01785028331769215</v>
+        <v>0.01476211304405083</v>
       </c>
       <c r="D8">
-        <v>0.02072906004197987</v>
+        <v>-0.003876983643089298</v>
       </c>
       <c r="E8">
-        <v>-0.01731341741914681</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01726966068955816</v>
+      </c>
+      <c r="F8">
+        <v>-0.02253406653997665</v>
+      </c>
+      <c r="G8">
+        <v>0.02652370649632709</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01404685325279175</v>
+        <v>0.02902525919971926</v>
       </c>
       <c r="C9">
-        <v>0.0240250356861462</v>
+        <v>0.04279299972712857</v>
       </c>
       <c r="D9">
-        <v>0.02151439975922123</v>
+        <v>-0.01536008432597899</v>
       </c>
       <c r="E9">
-        <v>-0.01541814143364556</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.004892229218570739</v>
+      </c>
+      <c r="F9">
+        <v>-0.01852267570730716</v>
+      </c>
+      <c r="G9">
+        <v>0.03291824318390554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.007316848362011654</v>
+        <v>0.08595022427565724</v>
       </c>
       <c r="C10">
-        <v>0.08207124756910476</v>
+        <v>-0.1865420256481535</v>
       </c>
       <c r="D10">
-        <v>-0.08781111886477459</v>
+        <v>0.01895106479606968</v>
       </c>
       <c r="E10">
-        <v>0.1374380358298161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01942334797531428</v>
+      </c>
+      <c r="F10">
+        <v>0.01466254461548627</v>
+      </c>
+      <c r="G10">
+        <v>0.03809587961935751</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.0002142392993295454</v>
+        <v>0.03647817532506518</v>
       </c>
       <c r="C11">
-        <v>0.01808309938756573</v>
+        <v>0.05224179237255992</v>
       </c>
       <c r="D11">
-        <v>0.01201107478811066</v>
+        <v>-0.001280930595061244</v>
       </c>
       <c r="E11">
-        <v>-0.03144023224820917</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001642352428664271</v>
+      </c>
+      <c r="F11">
+        <v>-0.02475822794840556</v>
+      </c>
+      <c r="G11">
+        <v>0.0143632069033382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005136967333400799</v>
+        <v>0.03387933133250984</v>
       </c>
       <c r="C12">
-        <v>0.02803793886327976</v>
+        <v>0.04432723137167035</v>
       </c>
       <c r="D12">
-        <v>0.01935119026473828</v>
+        <v>-0.005445932326056193</v>
       </c>
       <c r="E12">
-        <v>-0.03063469934009001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.008216403611152704</v>
+      </c>
+      <c r="F12">
+        <v>-0.006967788382655179</v>
+      </c>
+      <c r="G12">
+        <v>0.01866845121077635</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.02090216658308756</v>
+        <v>0.01183681355870931</v>
       </c>
       <c r="C13">
-        <v>0.009027111955385265</v>
+        <v>0.03373908924891971</v>
       </c>
       <c r="D13">
-        <v>0.002111180346390075</v>
+        <v>-0.02470611874376891</v>
       </c>
       <c r="E13">
-        <v>-0.008837511688901116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>0.02394712070255092</v>
+      </c>
+      <c r="F13">
+        <v>-0.02411486941440672</v>
+      </c>
+      <c r="G13">
+        <v>0.02987099219686728</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006776807540669542</v>
+        <v>0.006895334457889551</v>
       </c>
       <c r="C14">
-        <v>0.01244297364676162</v>
+        <v>0.02541467035052389</v>
       </c>
       <c r="D14">
-        <v>0.01569972080362353</v>
+        <v>-0.008607798631021799</v>
       </c>
       <c r="E14">
-        <v>0.002622111390062524</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.003765239175957719</v>
+      </c>
+      <c r="F14">
+        <v>-0.003705075141192225</v>
+      </c>
+      <c r="G14">
+        <v>0.03771798418407489</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>7.405505691875645e-05</v>
+        <v>0.03253163312439369</v>
       </c>
       <c r="C16">
-        <v>0.0236867295874865</v>
+        <v>0.04250950799821414</v>
       </c>
       <c r="D16">
-        <v>0.02077197822424311</v>
+        <v>-0.0009186564449643461</v>
       </c>
       <c r="E16">
-        <v>-0.0328987337441032</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.0006057506823879041</v>
+      </c>
+      <c r="F16">
+        <v>-0.01086461470090236</v>
+      </c>
+      <c r="G16">
+        <v>0.01784715549577481</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01144579678428351</v>
+        <v>0.03091959305633632</v>
       </c>
       <c r="C19">
-        <v>0.01754359111054632</v>
+        <v>0.05477906691498934</v>
       </c>
       <c r="D19">
-        <v>0.01937486405407696</v>
+        <v>-0.01528610426588371</v>
       </c>
       <c r="E19">
-        <v>-0.02853424338112821</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.04032638879921886</v>
+      </c>
+      <c r="F19">
+        <v>-0.03900493085956414</v>
+      </c>
+      <c r="G19">
+        <v>0.03617877003098881</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.009613289452570256</v>
+        <v>0.01132313238605782</v>
       </c>
       <c r="C20">
-        <v>0.002079948170383678</v>
+        <v>0.03473694450614059</v>
       </c>
       <c r="D20">
-        <v>0.004184829994661359</v>
+        <v>-0.01306336525489451</v>
       </c>
       <c r="E20">
-        <v>0.001833198479986477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.02183196577508206</v>
+      </c>
+      <c r="F20">
+        <v>-0.00677743510941556</v>
+      </c>
+      <c r="G20">
+        <v>0.02977687972741971</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01331012138823213</v>
+        <v>0.01264075525595529</v>
       </c>
       <c r="C21">
-        <v>0.02896099418454164</v>
+        <v>0.03290609459854177</v>
       </c>
       <c r="D21">
-        <v>0.02166012128911506</v>
+        <v>-0.01604875933320161</v>
       </c>
       <c r="E21">
-        <v>0.004524194647394566</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>0.0299156538173048</v>
+      </c>
+      <c r="F21">
+        <v>-0.02085200070119194</v>
+      </c>
+      <c r="G21">
+        <v>0.05236606731024743</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.00437963740107362</v>
+        <v>0.02751191564915846</v>
       </c>
       <c r="C24">
-        <v>0.02147820150358056</v>
+        <v>0.04553459895099907</v>
       </c>
       <c r="D24">
-        <v>0.0173119763558765</v>
+        <v>-0.006274580839741573</v>
       </c>
       <c r="E24">
-        <v>-0.02935601410128372</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.005126805122255954</v>
+      </c>
+      <c r="F24">
+        <v>-0.0202500238373235</v>
+      </c>
+      <c r="G24">
+        <v>0.01751397779910921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01066940139222972</v>
+        <v>0.04466396209627489</v>
       </c>
       <c r="C25">
-        <v>0.034162065164332</v>
+        <v>0.05224514605238133</v>
       </c>
       <c r="D25">
-        <v>0.01651420357990732</v>
+        <v>-0.0100872295413723</v>
       </c>
       <c r="E25">
-        <v>-0.03116849822733966</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01247249094514176</v>
+      </c>
+      <c r="F25">
+        <v>-0.01465360624660131</v>
+      </c>
+      <c r="G25">
+        <v>0.02341759644180319</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02267818002985144</v>
+        <v>0.008394829541753846</v>
       </c>
       <c r="C26">
-        <v>0.0009361285153106657</v>
+        <v>0.00823511187980961</v>
       </c>
       <c r="D26">
-        <v>0.00472865218195782</v>
+        <v>-0.02367153592603086</v>
       </c>
       <c r="E26">
-        <v>0.008761067457133368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.00868251112183745</v>
+      </c>
+      <c r="F26">
+        <v>-0.006329549054545238</v>
+      </c>
+      <c r="G26">
+        <v>0.0266252270518508</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02349547808220172</v>
+        <v>0.1084996504794259</v>
       </c>
       <c r="C28">
-        <v>0.1216286543347658</v>
+        <v>-0.2295653336383144</v>
       </c>
       <c r="D28">
-        <v>-0.130157496168558</v>
+        <v>0.0103216977120881</v>
       </c>
       <c r="E28">
-        <v>0.2052000220611626</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.008138248722334989</v>
+      </c>
+      <c r="F28">
+        <v>0.007430707931894706</v>
+      </c>
+      <c r="G28">
+        <v>0.05411286981330529</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.006636860940594711</v>
+        <v>0.01193391170840327</v>
       </c>
       <c r="C29">
-        <v>0.01419433144498939</v>
+        <v>0.01887797534818038</v>
       </c>
       <c r="D29">
-        <v>0.01155941092820339</v>
+        <v>-0.007337319199415226</v>
       </c>
       <c r="E29">
-        <v>0.001906930434665743</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.001428196333945243</v>
+      </c>
+      <c r="F29">
+        <v>0.004953821153335269</v>
+      </c>
+      <c r="G29">
+        <v>0.03202041026890255</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02367590431490291</v>
+        <v>0.04120033309945381</v>
       </c>
       <c r="C30">
-        <v>0.03313509780096527</v>
+        <v>0.06972145369466748</v>
       </c>
       <c r="D30">
-        <v>-0.0134400392500687</v>
+        <v>-0.02679822091228177</v>
       </c>
       <c r="E30">
-        <v>-0.08176497922982069</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.0210649484087076</v>
+      </c>
+      <c r="F30">
+        <v>-0.04618076526606663</v>
+      </c>
+      <c r="G30">
+        <v>-0.004114633947265869</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.005771406947871688</v>
+        <v>0.04414578879063737</v>
       </c>
       <c r="C31">
-        <v>0.04737197862949279</v>
+        <v>0.03032737182191382</v>
       </c>
       <c r="D31">
-        <v>0.02008555009740799</v>
+        <v>-0.003059326771766318</v>
       </c>
       <c r="E31">
-        <v>-0.0109558298682474</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.009825026350813731</v>
+      </c>
+      <c r="F31">
+        <v>0.0366619078764369</v>
+      </c>
+      <c r="G31">
+        <v>0.02854008933938873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007932978097342981</v>
+        <v>0.003529662685084017</v>
       </c>
       <c r="C32">
-        <v>-0.003548788507489008</v>
+        <v>0.03421086757119411</v>
       </c>
       <c r="D32">
-        <v>0.03529242220336258</v>
+        <v>0.004601728467484269</v>
       </c>
       <c r="E32">
-        <v>-0.007351047896304696</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.01375503531120272</v>
+      </c>
+      <c r="F32">
+        <v>-0.07731215353732204</v>
+      </c>
+      <c r="G32">
+        <v>0.05211778136578077</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01148719257648595</v>
+        <v>0.03083427130238428</v>
       </c>
       <c r="C33">
-        <v>0.02748564796815921</v>
+        <v>0.04953393686846191</v>
       </c>
       <c r="D33">
-        <v>-0.005288663654343142</v>
+        <v>-0.01386401732518001</v>
       </c>
       <c r="E33">
-        <v>-0.03261716365548899</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.02012775477295979</v>
+      </c>
+      <c r="F33">
+        <v>-0.0263379257309597</v>
+      </c>
+      <c r="G33">
+        <v>0.02414968905921241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.005758988681951152</v>
+        <v>0.0466948677108768</v>
       </c>
       <c r="C34">
-        <v>0.02932861603619842</v>
+        <v>0.0533369572669276</v>
       </c>
       <c r="D34">
-        <v>0.02768082992867375</v>
+        <v>0.005922706052865677</v>
       </c>
       <c r="E34">
-        <v>-0.02896778452469737</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.01158937569743194</v>
+      </c>
+      <c r="F34">
+        <v>-0.02245463136285866</v>
+      </c>
+      <c r="G34">
+        <v>0.02783495077363407</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01129728019326465</v>
+        <v>0.01158845984475656</v>
       </c>
       <c r="C36">
-        <v>0.01389719048686958</v>
+        <v>0.006060737261801625</v>
       </c>
       <c r="D36">
-        <v>0.001946370248306971</v>
+        <v>-0.01104534142709996</v>
       </c>
       <c r="E36">
-        <v>0.004188324662254912</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.0005268492686732907</v>
+      </c>
+      <c r="F36">
+        <v>0.0004152359826825818</v>
+      </c>
+      <c r="G36">
+        <v>0.01935842640037832</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.006513282820652952</v>
+        <v>0.03535949768751517</v>
       </c>
       <c r="C38">
-        <v>0.02736423977832522</v>
+        <v>0.02416187930037344</v>
       </c>
       <c r="D38">
-        <v>0.007945827844139648</v>
+        <v>0.008239342529512084</v>
       </c>
       <c r="E38">
-        <v>-0.01777336709177639</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.003921955292209</v>
+      </c>
+      <c r="F38">
+        <v>-0.001444668844014047</v>
+      </c>
+      <c r="G38">
+        <v>0.02913526985133387</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005285229037036055</v>
+        <v>0.03344215559373849</v>
       </c>
       <c r="C39">
-        <v>0.01591663372315694</v>
+        <v>0.08198030889311317</v>
       </c>
       <c r="D39">
-        <v>0.03903075484696913</v>
+        <v>-0.01157738515225354</v>
       </c>
       <c r="E39">
-        <v>-0.05692141759053544</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.01155750417382325</v>
+      </c>
+      <c r="F39">
+        <v>-0.03978345603591284</v>
+      </c>
+      <c r="G39">
+        <v>0.01963175855642188</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.01009734879105645</v>
+        <v>0.02082792673954782</v>
       </c>
       <c r="C40">
-        <v>0.02637835073513399</v>
+        <v>0.03017361909394733</v>
       </c>
       <c r="D40">
-        <v>0.01398748566359025</v>
+        <v>-0.01276821895224551</v>
       </c>
       <c r="E40">
-        <v>-0.0335798185437523</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.01634739462713587</v>
+      </c>
+      <c r="F40">
+        <v>-0.0218729025630693</v>
+      </c>
+      <c r="G40">
+        <v>0.02050342472351368</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.004750739099299326</v>
+        <v>0.01246104029268159</v>
       </c>
       <c r="C41">
-        <v>0.01464284214115666</v>
+        <v>-0.002279953994199245</v>
       </c>
       <c r="D41">
-        <v>-0.005875761400522398</v>
+        <v>-0.003345597206158253</v>
       </c>
       <c r="E41">
-        <v>0.008668436081970776</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>-0.002856992643033304</v>
+      </c>
+      <c r="F41">
+        <v>-0.0009283976911448774</v>
+      </c>
+      <c r="G41">
+        <v>0.01356913907130554</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.08337661831044313</v>
+        <v>0.03468698182166841</v>
       </c>
       <c r="C42">
-        <v>0.1246524981095407</v>
+        <v>0.05478945099101595</v>
       </c>
       <c r="D42">
-        <v>-0.04727198227657104</v>
+        <v>-0.1020469249800134</v>
       </c>
       <c r="E42">
-        <v>-0.1517763510843737</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>0.06047559024174362</v>
+      </c>
+      <c r="F42">
+        <v>0.1081893545574421</v>
+      </c>
+      <c r="G42">
+        <v>-0.2020834413062909</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005325161920351379</v>
+        <v>0.02945294386134897</v>
       </c>
       <c r="C43">
-        <v>0.01209932265315457</v>
+        <v>0.006511390392718506</v>
       </c>
       <c r="D43">
-        <v>-0.008258544960513363</v>
+        <v>-0.003457471444500029</v>
       </c>
       <c r="E43">
-        <v>0.01009544088181196</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.002428888686221321</v>
+      </c>
+      <c r="F43">
+        <v>-0.0002904150198831039</v>
+      </c>
+      <c r="G43">
+        <v>0.01810684389485235</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002404053564039928</v>
+        <v>0.01711545935400583</v>
       </c>
       <c r="C44">
-        <v>0.0002620513420033394</v>
+        <v>0.04638601885936855</v>
       </c>
       <c r="D44">
-        <v>0.0143901047104301</v>
+        <v>-0.006418537784188462</v>
       </c>
       <c r="E44">
-        <v>-0.001435046511011551</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.01910636904301417</v>
+      </c>
+      <c r="F44">
+        <v>-0.02709440157500969</v>
+      </c>
+      <c r="G44">
+        <v>0.03514660200871483</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.009591369775404958</v>
+        <v>0.00334044638462622</v>
       </c>
       <c r="C46">
-        <v>0.008052260732892245</v>
+        <v>0.01668637584935187</v>
       </c>
       <c r="D46">
-        <v>0.01287211129537991</v>
+        <v>-0.01162078091168625</v>
       </c>
       <c r="E46">
-        <v>-0.01599478602951907</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.000539365735886874</v>
+      </c>
+      <c r="F46">
+        <v>0.009130825306036837</v>
+      </c>
+      <c r="G46">
+        <v>0.02509184435109745</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>7.531389487973939e-05</v>
+        <v>0.07592158439957401</v>
       </c>
       <c r="C47">
-        <v>0.07236745029442723</v>
+        <v>0.0619439768112672</v>
       </c>
       <c r="D47">
-        <v>0.01463037780315061</v>
+        <v>0.005232834922482936</v>
       </c>
       <c r="E47">
-        <v>-0.03043525127070657</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>-0.01224517474156161</v>
+      </c>
+      <c r="F47">
+        <v>0.06197649731144056</v>
+      </c>
+      <c r="G47">
+        <v>0.0231878911292499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002329143324488103</v>
+        <v>0.01937737545419378</v>
       </c>
       <c r="C48">
-        <v>0.02585208415909134</v>
+        <v>0.01007974446742415</v>
       </c>
       <c r="D48">
-        <v>0.003940188947209091</v>
+        <v>-0.0008548554636472246</v>
       </c>
       <c r="E48">
-        <v>0.0001357758044666815</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.002560863309385263</v>
+      </c>
+      <c r="F48">
+        <v>0.01390474739337375</v>
+      </c>
+      <c r="G48">
+        <v>0.02559262321384088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.001017940408799991</v>
+        <v>0.0812324982589948</v>
       </c>
       <c r="C50">
-        <v>0.06647834659550245</v>
+        <v>0.06344155129485478</v>
       </c>
       <c r="D50">
-        <v>0.03814603632725731</v>
+        <v>0.004334746200582466</v>
       </c>
       <c r="E50">
-        <v>-0.01866139913417345</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01350768008548502</v>
+      </c>
+      <c r="F50">
+        <v>0.05697260220219098</v>
+      </c>
+      <c r="G50">
+        <v>0.0435317989591128</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.005916173950453892</v>
+        <v>0.01344667759273597</v>
       </c>
       <c r="C51">
-        <v>-0.001096825237660462</v>
+        <v>0.02607779089170455</v>
       </c>
       <c r="D51">
-        <v>0.001260459635576046</v>
+        <v>-0.008587814673501155</v>
       </c>
       <c r="E51">
-        <v>0.02715235903316702</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>0.005318565916702205</v>
+      </c>
+      <c r="F51">
+        <v>-0.0320429779414414</v>
+      </c>
+      <c r="G51">
+        <v>0.04697008646593365</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.001974782971180892</v>
+        <v>0.09756788632163987</v>
       </c>
       <c r="C53">
-        <v>0.1022309714417014</v>
+        <v>0.07438484872490297</v>
       </c>
       <c r="D53">
-        <v>0.04761679883903124</v>
+        <v>0.005969660035021006</v>
       </c>
       <c r="E53">
-        <v>-0.0616237881649401</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>-0.03812297511672812</v>
+      </c>
+      <c r="F53">
+        <v>0.06597999732686284</v>
+      </c>
+      <c r="G53">
+        <v>0.02570990126939258</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.00238877867684556</v>
+        <v>0.02931272891572836</v>
       </c>
       <c r="C54">
-        <v>0.02310236795288387</v>
+        <v>0.003714436593943282</v>
       </c>
       <c r="D54">
-        <v>0.0007718020088001445</v>
+        <v>0.004226200829340475</v>
       </c>
       <c r="E54">
-        <v>0.01375580386464204</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.003836762004289797</v>
+      </c>
+      <c r="F54">
+        <v>0.0017623710628223</v>
+      </c>
+      <c r="G54">
+        <v>0.03066318473856306</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>1.715238133743234e-05</v>
+        <v>0.07406269966694062</v>
       </c>
       <c r="C55">
-        <v>0.07888474646385979</v>
+        <v>0.07047139300258692</v>
       </c>
       <c r="D55">
-        <v>0.03900728183514159</v>
+        <v>0.004833355253556043</v>
       </c>
       <c r="E55">
-        <v>-0.06869368143049316</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.02622737519105531</v>
+      </c>
+      <c r="F55">
+        <v>0.06208549850469455</v>
+      </c>
+      <c r="G55">
+        <v>0.01200915343358954</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.0005932243741023517</v>
+        <v>0.1490190645400879</v>
       </c>
       <c r="C56">
-        <v>0.1485479521890757</v>
+        <v>0.09691571895010115</v>
       </c>
       <c r="D56">
-        <v>0.0475602282996062</v>
+        <v>0.0146994417944442</v>
       </c>
       <c r="E56">
-        <v>-0.08623373401022066</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>-0.04271714083622741</v>
+      </c>
+      <c r="F56">
+        <v>0.1032704636521899</v>
+      </c>
+      <c r="G56">
+        <v>0.002994867722361276</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02328619490175403</v>
+        <v>0.01291679923437005</v>
       </c>
       <c r="C57">
-        <v>0.03637429842657568</v>
+        <v>0.0112827034270751</v>
       </c>
       <c r="D57">
-        <v>0.005223987060510773</v>
+        <v>-0.02355721177290377</v>
       </c>
       <c r="E57">
-        <v>-0.02136370971936165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>0.02742004067346582</v>
+      </c>
+      <c r="F57">
+        <v>-0.01588034822599654</v>
+      </c>
+      <c r="G57">
+        <v>0.02185797911905078</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.0108872292183979</v>
+        <v>0.07527351270951371</v>
       </c>
       <c r="C58">
-        <v>0.1047914721491957</v>
+        <v>0.06818438188134986</v>
       </c>
       <c r="D58">
-        <v>-0.1027716563323045</v>
+        <v>-0.01940588239620365</v>
       </c>
       <c r="E58">
-        <v>-0.09914876297976838</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.9460507213105953</v>
+      </c>
+      <c r="F58">
+        <v>0.2212948160553083</v>
+      </c>
+      <c r="G58">
+        <v>0.05536790878774051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.01931581992231054</v>
+        <v>0.1459736295919513</v>
       </c>
       <c r="C59">
-        <v>0.1227251674565777</v>
+        <v>-0.2181525679686694</v>
       </c>
       <c r="D59">
-        <v>-0.1449676652239387</v>
+        <v>0.01722924668848883</v>
       </c>
       <c r="E59">
-        <v>0.174366368997928</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.0145569264271875</v>
+      </c>
+      <c r="F59">
+        <v>-0.009878213400344341</v>
+      </c>
+      <c r="G59">
+        <v>0.01738862186219451</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.02754848079711152</v>
+        <v>0.2951953283453452</v>
       </c>
       <c r="C60">
-        <v>0.1962022137586716</v>
+        <v>0.07675656966492063</v>
       </c>
       <c r="D60">
-        <v>-0.04695829030967356</v>
+        <v>-0.007081768017299909</v>
       </c>
       <c r="E60">
-        <v>-0.0359601453941233</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01526504019136598</v>
+      </c>
+      <c r="F60">
+        <v>-0.3844566771852457</v>
+      </c>
+      <c r="G60">
+        <v>-0.07759818503215535</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002582427938587463</v>
+        <v>0.03430743480030319</v>
       </c>
       <c r="C61">
-        <v>0.02847115156903549</v>
+        <v>0.06221818226539267</v>
       </c>
       <c r="D61">
-        <v>0.02661645834361897</v>
+        <v>-0.004905367390632047</v>
       </c>
       <c r="E61">
-        <v>-0.04785417445452826</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.007434797464373952</v>
+      </c>
+      <c r="F61">
+        <v>-0.02518311373559172</v>
+      </c>
+      <c r="G61">
+        <v>0.02053189751588634</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007335892557118064</v>
+        <v>0.01633807883579974</v>
       </c>
       <c r="C63">
-        <v>0.01444205524779014</v>
+        <v>0.02533020712603578</v>
       </c>
       <c r="D63">
-        <v>0.01270274128133189</v>
+        <v>-0.007606126780363698</v>
       </c>
       <c r="E63">
-        <v>-0.01089015212379758</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.0109546766202325</v>
+      </c>
+      <c r="F63">
+        <v>0.01143775323085717</v>
+      </c>
+      <c r="G63">
+        <v>0.02999283051914109</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.005215860342133157</v>
+        <v>0.047687925151333</v>
       </c>
       <c r="C64">
-        <v>0.04400286254719594</v>
+        <v>0.03475846113425392</v>
       </c>
       <c r="D64">
-        <v>0.01997700922201069</v>
+        <v>-0.004510206771139229</v>
       </c>
       <c r="E64">
-        <v>-0.03714315202759007</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.00927844972219884</v>
+      </c>
+      <c r="F64">
+        <v>-0.01391949764357584</v>
+      </c>
+      <c r="G64">
+        <v>0.01797675615256718</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01721036728396828</v>
+        <v>0.08071459683143828</v>
       </c>
       <c r="C65">
-        <v>0.06404954526609014</v>
+        <v>0.0660958474232084</v>
       </c>
       <c r="D65">
-        <v>0.03841304870534006</v>
+        <v>-0.01514920328459382</v>
       </c>
       <c r="E65">
-        <v>-0.05663451580751288</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.002933867710663245</v>
+      </c>
+      <c r="F65">
+        <v>-0.04201518091855699</v>
+      </c>
+      <c r="G65">
+        <v>0.01014285121875888</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.004941816914519791</v>
+        <v>0.05523096977549344</v>
       </c>
       <c r="C66">
-        <v>0.03582404918687747</v>
+        <v>0.1138817427490199</v>
       </c>
       <c r="D66">
-        <v>0.0339230158828954</v>
+        <v>-0.01089361462923706</v>
       </c>
       <c r="E66">
-        <v>-0.08429295527216316</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.01469716253664141</v>
+      </c>
+      <c r="F66">
+        <v>-0.04839120627005275</v>
+      </c>
+      <c r="G66">
+        <v>0.01075122363315599</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.001930883001561231</v>
+        <v>0.05954965356966831</v>
       </c>
       <c r="C67">
-        <v>0.04332145886864223</v>
+        <v>0.02708976375030095</v>
       </c>
       <c r="D67">
-        <v>0.004319452437380722</v>
+        <v>0.006876384079945438</v>
       </c>
       <c r="E67">
-        <v>-0.01751969382736106</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.003601461050122335</v>
+      </c>
+      <c r="F67">
+        <v>-0.0001907499415273132</v>
+      </c>
+      <c r="G67">
+        <v>0.02904048856081079</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.03698136121049778</v>
+        <v>0.1257582844311372</v>
       </c>
       <c r="C68">
-        <v>0.1085466144205519</v>
+        <v>-0.2733873570653739</v>
       </c>
       <c r="D68">
-        <v>-0.1410610984716252</v>
+        <v>-0.001101111147435137</v>
       </c>
       <c r="E68">
-        <v>0.1870100057308092</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.01829511475048387</v>
+      </c>
+      <c r="F68">
+        <v>0.0131901245158542</v>
+      </c>
+      <c r="G68">
+        <v>0.01994161903611023</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.004086023479815427</v>
+        <v>0.07829103213436048</v>
       </c>
       <c r="C69">
-        <v>0.05903340300160614</v>
+        <v>0.06149445440520933</v>
       </c>
       <c r="D69">
-        <v>0.01624852950912272</v>
+        <v>0.009499652278376774</v>
       </c>
       <c r="E69">
-        <v>-0.02982292355424699</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.03058916195987245</v>
+      </c>
+      <c r="F69">
+        <v>0.04100174733486826</v>
+      </c>
+      <c r="G69">
+        <v>0.01908397926958798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.02577947625508909</v>
+        <v>0.1241694378045094</v>
       </c>
       <c r="C71">
-        <v>0.1020524022055365</v>
+        <v>-0.2308535243175118</v>
       </c>
       <c r="D71">
-        <v>-0.1177309710836822</v>
+        <v>0.007794907200613886</v>
       </c>
       <c r="E71">
-        <v>0.1779908212361217</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.02472177382203688</v>
+      </c>
+      <c r="F71">
+        <v>0.01791027597494143</v>
+      </c>
+      <c r="G71">
+        <v>0.03679484258714279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.00261922201818965</v>
+        <v>0.08702151634475148</v>
       </c>
       <c r="C72">
-        <v>0.1200872552095853</v>
+        <v>0.07606552738599454</v>
       </c>
       <c r="D72">
-        <v>0.03958070368861141</v>
+        <v>0.008961828055549251</v>
       </c>
       <c r="E72">
-        <v>-0.1116980463847451</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.01062971419404319</v>
+      </c>
+      <c r="F72">
+        <v>-0.03859965671782803</v>
+      </c>
+      <c r="G72">
+        <v>-0.00158510289691963</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.03954722994842915</v>
+        <v>0.4049702733009228</v>
       </c>
       <c r="C73">
-        <v>0.244139359126533</v>
+        <v>0.0928981263125955</v>
       </c>
       <c r="D73">
-        <v>-0.06439186401942444</v>
+        <v>-0.01143622409728159</v>
       </c>
       <c r="E73">
-        <v>-0.1205707008094396</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.06092879439942488</v>
+      </c>
+      <c r="F73">
+        <v>-0.5345734143902496</v>
+      </c>
+      <c r="G73">
+        <v>-0.1341285331758808</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.001684166529973514</v>
+        <v>0.1188914707230143</v>
       </c>
       <c r="C74">
-        <v>0.137786917788405</v>
+        <v>0.1136684166566563</v>
       </c>
       <c r="D74">
-        <v>0.03756759426758534</v>
+        <v>0.01082997430950419</v>
       </c>
       <c r="E74">
-        <v>-0.08923605745795045</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>-0.03639453495481837</v>
+      </c>
+      <c r="F74">
+        <v>0.07047261665308259</v>
+      </c>
+      <c r="G74">
+        <v>0.02074163300163644</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.003129258516960841</v>
+        <v>0.2661025344131238</v>
       </c>
       <c r="C75">
-        <v>0.2812836277417926</v>
+        <v>0.1394958013312662</v>
       </c>
       <c r="D75">
-        <v>0.06054509500556441</v>
+        <v>0.03229497804514091</v>
       </c>
       <c r="E75">
-        <v>-0.1571835021075142</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>-0.07375811447254466</v>
+      </c>
+      <c r="F75">
+        <v>0.2169049249542625</v>
+      </c>
+      <c r="G75">
+        <v>-0.02334583338256228</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.006377747608479221</v>
+        <v>0.1408622167245388</v>
       </c>
       <c r="C76">
-        <v>0.2395479511719205</v>
+        <v>0.1187055923889602</v>
       </c>
       <c r="D76">
-        <v>0.07985315448524451</v>
+        <v>0.02212483736352712</v>
       </c>
       <c r="E76">
-        <v>-0.1416675755543514</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>-0.06633967763407977</v>
+      </c>
+      <c r="F76">
+        <v>0.1365977191274654</v>
+      </c>
+      <c r="G76">
+        <v>0.01028608440175947</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.01186269486150172</v>
+        <v>0.06221862538477683</v>
       </c>
       <c r="C77">
-        <v>0.03741425682181251</v>
+        <v>0.06002126547791284</v>
       </c>
       <c r="D77">
-        <v>0.03001846020326974</v>
+        <v>-0.01194347479488249</v>
       </c>
       <c r="E77">
-        <v>-0.04918801900680829</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.0403774039392117</v>
+      </c>
+      <c r="F77">
+        <v>-0.02175369176120159</v>
+      </c>
+      <c r="G77">
+        <v>0.04406104670243123</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.00354139915722062</v>
+        <v>0.04123104715631158</v>
       </c>
       <c r="C78">
-        <v>0.03038552299121713</v>
+        <v>0.04995140365538317</v>
       </c>
       <c r="D78">
-        <v>0.0260347433205476</v>
+        <v>-0.005190027423042051</v>
       </c>
       <c r="E78">
-        <v>-0.0375640421587091</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.01723859758775547</v>
+      </c>
+      <c r="F78">
+        <v>-0.04268157011677895</v>
+      </c>
+      <c r="G78">
+        <v>0.03196790851264272</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01636737626497368</v>
+        <v>0.0607071872478944</v>
       </c>
       <c r="C80">
-        <v>0.2138902211030635</v>
+        <v>0.07046832193058428</v>
       </c>
       <c r="D80">
-        <v>0.7938881741106221</v>
+        <v>-0.01366153764121292</v>
       </c>
       <c r="E80">
-        <v>0.5192459176655906</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.06861198357567384</v>
+      </c>
+      <c r="F80">
+        <v>-0.04638717942576066</v>
+      </c>
+      <c r="G80">
+        <v>0.9151521475691308</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.0008255332454508558</v>
+        <v>0.1493943653161675</v>
       </c>
       <c r="C81">
-        <v>0.1921381631863177</v>
+        <v>0.0913714979361827</v>
       </c>
       <c r="D81">
-        <v>0.04936467333883481</v>
+        <v>0.01673003492179837</v>
       </c>
       <c r="E81">
-        <v>-0.09822061404169456</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>-0.0457226538803179</v>
+      </c>
+      <c r="F81">
+        <v>0.1389142502940271</v>
+      </c>
+      <c r="G81">
+        <v>0.01320775472986575</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.0505334331982739</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>0.03236185345384653</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002702931390743042</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>-0.01492698936058983</v>
+      </c>
+      <c r="F82">
+        <v>0.002665431871085704</v>
+      </c>
+      <c r="G82">
+        <v>-0.004804242111177743</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006474504701998653</v>
+        <v>0.02870976847914799</v>
       </c>
       <c r="C83">
-        <v>0.03037561313786875</v>
+        <v>0.01916288026520314</v>
       </c>
       <c r="D83">
-        <v>0.001126158574288734</v>
+        <v>-0.005159105793302976</v>
       </c>
       <c r="E83">
-        <v>-0.01025501791343967</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.02620698868295472</v>
+      </c>
+      <c r="F83">
+        <v>-0.02463482985238816</v>
+      </c>
+      <c r="G83">
+        <v>0.02721234154128763</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.005808742928791122</v>
+        <v>0.2416459367773085</v>
       </c>
       <c r="C85">
-        <v>0.2452227933763071</v>
+        <v>0.144982284939434</v>
       </c>
       <c r="D85">
-        <v>0.06483269534379342</v>
+        <v>0.02087491434008212</v>
       </c>
       <c r="E85">
-        <v>-0.1784604922227631</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>-0.1192245970580381</v>
+      </c>
+      <c r="F85">
+        <v>0.2038686785803947</v>
+      </c>
+      <c r="G85">
+        <v>-0.04763876575658641</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.005299039869866289</v>
+        <v>0.01093923793721009</v>
       </c>
       <c r="C86">
-        <v>0.0005577837330613892</v>
+        <v>0.02335528505676191</v>
       </c>
       <c r="D86">
-        <v>0.008843512684082035</v>
+        <v>-0.009600984537893216</v>
       </c>
       <c r="E86">
-        <v>-0.006747115885505789</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.02549807060329748</v>
+      </c>
+      <c r="F86">
+        <v>-0.01997089272254106</v>
+      </c>
+      <c r="G86">
+        <v>0.05659855454403408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.006191191158818893</v>
+        <v>0.01673635091037058</v>
       </c>
       <c r="C87">
-        <v>0.01803122490674796</v>
+        <v>0.02673117944989567</v>
       </c>
       <c r="D87">
-        <v>0.01454272048751703</v>
+        <v>-0.01126439417469944</v>
       </c>
       <c r="E87">
-        <v>-0.01990456823157195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.07829685019448859</v>
+      </c>
+      <c r="F87">
+        <v>-0.0609003778443047</v>
+      </c>
+      <c r="G87">
+        <v>0.0395030519680235</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02522799717668479</v>
+        <v>0.09113446070161614</v>
       </c>
       <c r="C88">
-        <v>0.04986066967835837</v>
+        <v>0.05335791061634643</v>
       </c>
       <c r="D88">
-        <v>-0.004270730821983118</v>
+        <v>-0.02084742795552097</v>
       </c>
       <c r="E88">
-        <v>-0.004788116195137805</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.006639897266387856</v>
+      </c>
+      <c r="F88">
+        <v>0.00209461721721254</v>
+      </c>
+      <c r="G88">
+        <v>0.02375042651421537</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.04897650003229898</v>
+        <v>0.2112795156756599</v>
       </c>
       <c r="C89">
-        <v>0.207947156790128</v>
+        <v>-0.3746293341229292</v>
       </c>
       <c r="D89">
-        <v>-0.2529007692218931</v>
+        <v>0.009529627922676835</v>
       </c>
       <c r="E89">
-        <v>0.3022451514447295</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.01474961541900406</v>
+      </c>
+      <c r="F89">
+        <v>0.0331462862856398</v>
+      </c>
+      <c r="G89">
+        <v>0.02797209339852582</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.03651314551393104</v>
+        <v>0.1771753366422094</v>
       </c>
       <c r="C90">
-        <v>0.1256623117195154</v>
+        <v>-0.3402389035285145</v>
       </c>
       <c r="D90">
-        <v>-0.2054992992050409</v>
+        <v>0.0122261302582463</v>
       </c>
       <c r="E90">
-        <v>0.243048927633527</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.004158161666975507</v>
+      </c>
+      <c r="F90">
+        <v>0.04688561514709861</v>
+      </c>
+      <c r="G90">
+        <v>0.004811756713282356</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.002288612921289917</v>
+        <v>0.214059880257601</v>
       </c>
       <c r="C91">
-        <v>0.2685116994298238</v>
+        <v>0.1312048750780863</v>
       </c>
       <c r="D91">
-        <v>0.06905662628941821</v>
+        <v>0.02531114644036643</v>
       </c>
       <c r="E91">
-        <v>-0.1805075146910735</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>-0.08326313635552093</v>
+      </c>
+      <c r="F91">
+        <v>0.1915152117972967</v>
+      </c>
+      <c r="G91">
+        <v>-0.006372850119771015</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.002682615015456245</v>
+        <v>0.2018470843013696</v>
       </c>
       <c r="C92">
-        <v>0.2783194360225474</v>
+        <v>-0.2751018802668589</v>
       </c>
       <c r="D92">
-        <v>-0.1942019774733389</v>
+        <v>0.05493766611267995</v>
       </c>
       <c r="E92">
-        <v>0.2231866151933921</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.006754049557744594</v>
+      </c>
+      <c r="F92">
+        <v>0.1331288561539055</v>
+      </c>
+      <c r="G92">
+        <v>0.06429237820755301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.03541913406935183</v>
+        <v>0.2028275812109645</v>
       </c>
       <c r="C93">
-        <v>0.1942978636990391</v>
+        <v>-0.3365173464182513</v>
       </c>
       <c r="D93">
-        <v>-0.2538662233743615</v>
+        <v>0.01911741037850178</v>
       </c>
       <c r="E93">
-        <v>0.272717556462885</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.01102924496321351</v>
+      </c>
+      <c r="F93">
+        <v>0.02029651413078924</v>
+      </c>
+      <c r="G93">
+        <v>0.001704226013023597</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.01764333637181661</v>
+        <v>0.2825203588576284</v>
       </c>
       <c r="C94">
-        <v>0.3040871173444396</v>
+        <v>0.1495122884417064</v>
       </c>
       <c r="D94">
-        <v>0.02126442325461214</v>
+        <v>0.01436176600543065</v>
       </c>
       <c r="E94">
-        <v>-0.1717463510258391</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>-0.1048554749603782</v>
+      </c>
+      <c r="F94">
+        <v>0.3962294805026266</v>
+      </c>
+      <c r="G94">
+        <v>-0.1248705920585671</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.00663220156694884</v>
+        <v>0.08412723544701946</v>
       </c>
       <c r="C95">
-        <v>0.08235145770011575</v>
+        <v>0.07356377485977934</v>
       </c>
       <c r="D95">
-        <v>-0.06418075379296391</v>
+        <v>0.008065307192720793</v>
       </c>
       <c r="E95">
-        <v>-0.06111314762221892</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.07563701447782359</v>
+      </c>
+      <c r="F95">
+        <v>-0.157609687560803</v>
+      </c>
+      <c r="G95">
+        <v>-0.07318657864490097</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.001946365102253859</v>
+        <v>0.2131439685358294</v>
       </c>
       <c r="C98">
-        <v>0.1977830231440179</v>
+        <v>0.04160313615671615</v>
       </c>
       <c r="D98">
-        <v>-0.04595623187495299</v>
+        <v>0.01752159160795615</v>
       </c>
       <c r="E98">
-        <v>-0.05345659175756463</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>0.06713961644549307</v>
+      </c>
+      <c r="F98">
+        <v>-0.2411323383870179</v>
+      </c>
+      <c r="G98">
+        <v>-0.03805933998393397</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007813658165920282</v>
+        <v>0.01329400646174337</v>
       </c>
       <c r="C101">
-        <v>0.02395392959847859</v>
+        <v>0.0197987798719728</v>
       </c>
       <c r="D101">
-        <v>0.003658084156527697</v>
+        <v>-0.008513086229894393</v>
       </c>
       <c r="E101">
-        <v>-0.004385918397470028</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.03674037462892329</v>
+      </c>
+      <c r="F101">
+        <v>0.02355142543626597</v>
+      </c>
+      <c r="G101">
+        <v>0.03946837692842228</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.01196862068311462</v>
+        <v>0.1276283034396951</v>
       </c>
       <c r="C102">
-        <v>0.143759240520298</v>
+        <v>0.07919733237161543</v>
       </c>
       <c r="D102">
-        <v>0.03046328484572707</v>
+        <v>0.0006949181301164966</v>
       </c>
       <c r="E102">
-        <v>-0.08530080873812711</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>-0.0431065153029223</v>
+      </c>
+      <c r="F102">
+        <v>0.06468625043988926</v>
+      </c>
+      <c r="G102">
+        <v>-0.01227085809377452</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001929007910364191</v>
+        <v>0.00536016129763987</v>
       </c>
       <c r="C103">
-        <v>0.02848624461078683</v>
+        <v>0.005730147347661118</v>
       </c>
       <c r="D103">
-        <v>0.02091754796942603</v>
+        <v>-0.0005241415328469345</v>
       </c>
       <c r="E103">
-        <v>-0.01377234545753949</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.0004760118844062275</v>
+      </c>
+      <c r="F103">
+        <v>0.008746311984116453</v>
+      </c>
+      <c r="G103">
+        <v>0.01464414378966362</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9875173718189518</v>
+        <v>0.03950361109706006</v>
       </c>
       <c r="C104">
-        <v>-0.08141617254066494</v>
+        <v>-0.04659957574822161</v>
       </c>
       <c r="D104">
-        <v>0.03503500835370888</v>
+        <v>-0.986047649948206</v>
       </c>
       <c r="E104">
-        <v>-0.03369912465946465</v>
+        <v>-0.0432673430947271</v>
+      </c>
+      <c r="F104">
+        <v>0.03891295508512334</v>
+      </c>
+      <c r="G104">
+        <v>-0.002206064797083275</v>
       </c>
     </row>
   </sheetData>
